--- a/lab/src/documents/PriceList.xlsx
+++ b/lab/src/documents/PriceList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevkk\Documents\web-course\lab\src\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19F88C5-A9E9-4D76-BE7F-3C89DF252782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B2DD73-CEA9-43E7-81BB-D7B601A2CE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0D34CB6-98BD-4BC8-8365-5D13C718E02A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0D34CB6-98BD-4BC8-8365-5D13C718E02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Cameras" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>SONY Alpha a68</t>
+  </si>
+  <si>
+    <t>CANON EOS 400D</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10">
         <v>347</v>
